--- a/ParinayamMatrimony_Individual.xlsx
+++ b/ParinayamMatrimony_Individual.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Script" sheetId="1" r:id="rId1"/>
-    <sheet name="Migration Checklist" sheetId="2" r:id="rId2"/>
+    <sheet name="First Publish Checklist" sheetId="2" r:id="rId2"/>
+    <sheet name="Next Publish Checklist" sheetId="3" r:id="rId3"/>
+    <sheet name="Payment Gateways" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>S.No</t>
   </si>
@@ -251,12 +254,105 @@
   <si>
     <t>Delete Log Files from Logs folder</t>
   </si>
+  <si>
+    <t>Update Connection string with the server details in settings file.</t>
+  </si>
+  <si>
+    <t>Check the org type, whether shared or individual</t>
+  </si>
+  <si>
+    <t>Publish the application</t>
+  </si>
+  <si>
+    <t>Zip it and upload it to hosting site</t>
+  </si>
+  <si>
+    <t>Zip the existing application in host, and download to backup folders with name and data</t>
+  </si>
+  <si>
+    <t>Delete all contents except images folder (contains profile pics)</t>
+  </si>
+  <si>
+    <t>Delete all profile only images from images folder</t>
+  </si>
+  <si>
+    <t>Annual Maintenance Fee</t>
+  </si>
+  <si>
+    <t>One Time Setup Fee</t>
+  </si>
+  <si>
+    <t>Gateway Name</t>
+  </si>
+  <si>
+    <t>Razor Pay</t>
+  </si>
+  <si>
+    <t>Indian Credit Cards</t>
+  </si>
+  <si>
+    <t>Indian Debit Cards</t>
+  </si>
+  <si>
+    <t>Net Banking</t>
+  </si>
+  <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>Wallets</t>
+  </si>
+  <si>
+    <t>Intl Cards</t>
+  </si>
+  <si>
+    <t>Corporate Cards</t>
+  </si>
+  <si>
+    <t>Instamojo</t>
+  </si>
+  <si>
+    <t>2% + 3</t>
+  </si>
+  <si>
+    <t>3% + 3 rs</t>
+  </si>
+  <si>
+    <t>harika427@gmail.com</t>
+  </si>
+  <si>
+    <t>pashi@123</t>
+  </si>
+  <si>
+    <t>Pashi@123</t>
+  </si>
+  <si>
+    <t>Open Account</t>
+  </si>
+  <si>
+    <t>6000 per year for all</t>
+  </si>
+  <si>
+    <t>ccavenue</t>
+  </si>
+  <si>
+    <t>1200 per year</t>
+  </si>
+  <si>
+    <t>payu.in</t>
+  </si>
+  <si>
+    <t>cashfree</t>
+  </si>
+  <si>
+    <t>3.5% + 7 rs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +364,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,10 +415,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,8 +432,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,4 +1086,282 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="M4" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="M6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>